--- a/doc3/游戏客户端总体设计框架.xlsx
+++ b/doc3/游戏客户端总体设计框架.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEC4485-F19D-442B-B68C-A982BAD16B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F1D15-F488-45F6-B72F-DBACAC534767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主要逻辑全盘LUA化（参照cocos2d-x，unity+lua，客户端整体全盘LUA）</t>
+    <t>主要逻辑全盘LUA化（参照以前cocos2d-x+lua，unity+lua的设计开发经验，UE的客户端整体也要全盘LUA）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +395,7 @@
   <dimension ref="B4:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc3/游戏客户端总体设计框架.xlsx
+++ b/doc3/游戏客户端总体设计框架.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F1D15-F488-45F6-B72F-DBACAC534767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D2D847-A4B8-4ED6-BA01-885BC8286C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,17 +38,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>主要是基于UNLUA的UE+Lua客户端框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>首先需要对UE整体有很深的了解，而且是源码层面的了解（具体参照源码分析的诸多文档）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主要逻辑全盘LUA化（参照以前cocos2d-x+lua，unity+lua的设计开发经验，UE的客户端整体也要全盘LUA）</t>
+    <t>UE引擎+第三方模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽可能简单精炼的C++接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯lua实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要逻辑全盘LUA化（基本思想和以前cocos2d-x+lua，unity+lua的设计开发经验一致，UE的客户端整体也要全盘LUA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本的东西都是一键生成，和服务器一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是基于UNLUA的UE+Lua客户端框架（只有对源码有足够深的了解才能设计的更好）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合目前现有的服务器框架，诸多的一键化工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +107,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,10 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -127,6 +156,1105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E4FA23-9333-35B9-4CBA-25A973688FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="1952625"/>
+          <a:ext cx="6010275" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>UE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>引擎层</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>第三方依赖库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形: 圆角 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921B8DDE-E4D4-F8DE-758A-4B65EF2F6AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="3362325"/>
+          <a:ext cx="6067425" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>通用客户端框架壳</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形: 圆角 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589CB253-08FB-6742-CD3A-6C74344368D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="3933825"/>
+          <a:ext cx="942975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>引擎封装层</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形: 圆角 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A1B8DD-E0B6-87C0-4546-C614C60004B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="3933825"/>
+          <a:ext cx="942975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下载更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形: 圆角 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AD1D15-0771-4B09-5C3F-8A2357E0E355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="3943350"/>
+          <a:ext cx="942975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>网络模块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圆角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D6AFFB-8733-8C39-4145-30C9E7542102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="3943350"/>
+          <a:ext cx="1285875" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>其他必须模块等</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形: 圆角 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B510306-C982-257A-4125-CBEB5971A7D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="5276850"/>
+          <a:ext cx="6057900" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>游戏客户端功能模块</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>（纯</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>lua</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>实现）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形: 圆角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878859B6-1BBE-1A14-CFB5-51961EA47678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="6200775"/>
+          <a:ext cx="942975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>App</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>管理器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形: 圆角 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D213F8-C432-22E4-BCF9-D09431FFB905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095876" y="6200775"/>
+          <a:ext cx="971549" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>网络管理器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形: 圆角 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7635BD0-9241-EEBA-BC59-01ADE10F7AFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="6781800"/>
+          <a:ext cx="1095375" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>场景对象体系</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形: 圆角 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87741312-F514-4D0D-90BB-C8AEE6031A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267451" y="6200775"/>
+          <a:ext cx="971549" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>配表管理器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形: 圆角 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BED3C8-B52F-D264-1595-AB2CB56503D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439026" y="6200775"/>
+          <a:ext cx="971549" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>流程管理器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形: 圆角 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FE2A54-394D-AFFD-09AE-506460F4CF51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="6791325"/>
+          <a:ext cx="942975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>游戏数据层</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形: 圆角 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC60F09-1E0D-98F8-D958-4E4A6C3EBA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="6791325"/>
+          <a:ext cx="942975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>窗口管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形: 圆角 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AA21F1-DF92-92CF-BAEE-E7361D88D2A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667626" y="6772275"/>
+          <a:ext cx="1104900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>本地数据存储</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="箭头: 下 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3235AB4B-F978-3511-9193-960D1BB61D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="2533650"/>
+          <a:ext cx="542925" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="箭头: 下 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678E912F-7808-E117-C07D-4E3B5E210A55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="4533900"/>
+          <a:ext cx="542925" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,25 +1520,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:L6"/>
+  <dimension ref="B4:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -421,12 +1549,12 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -437,10 +1565,43 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc3/游戏客户端总体设计框架.xlsx
+++ b/doc3/游戏客户端总体设计框架.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D2D847-A4B8-4ED6-BA01-885BC8286C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF56135-FCC0-47CE-B060-981377FDACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>首先需要对UE整体有很深的了解，而且是源码层面的了解（具体参照源码分析的诸多文档）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,22 @@
   </si>
   <si>
     <t>配合目前现有的服务器框架，诸多的一键化工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用non-block非阻塞模式，直接在主线程里面调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议采用protobuf，无需加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c++层进行网络连接，断开，收发，将事件传递到Lua层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +304,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
-            <a:t>通用客户端框架壳</a:t>
+            <a:t>通用客户端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>C++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>框架壳</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -557,8 +581,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -574,7 +598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3429000" y="5276850"/>
-          <a:ext cx="6057900" cy="2505075"/>
+          <a:ext cx="6057900" cy="3219450"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1249,6 +1273,134 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形: 圆角 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D02943-C7FB-546A-A039-1FA917EDECBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="7381875"/>
+          <a:ext cx="1095375" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动作事件回调</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形: 圆角 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E20EF6D-9994-66DC-3642-1A0878650B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="7372350"/>
+          <a:ext cx="1095375" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>特效事件回调</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1522,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1585,6 +1737,11 @@
     <row r="23" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P23" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="16:16" x14ac:dyDescent="0.2">
@@ -1704,12 +1861,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA6F9D7-EFC6-4555-8BF4-DEE567AE0C2C}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc3/游戏客户端总体设计框架.xlsx
+++ b/doc3/游戏客户端总体设计框架.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF56135-FCC0-47CE-B060-981377FDACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="总体" sheetId="1" r:id="rId1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1401,6 +1400,137 @@
             <a:t>特效事件回调</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形: 圆角 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E20EF6D-9994-66DC-3642-1A0878650B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="7362825"/>
+          <a:ext cx="1095375" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>资源管理机制</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形: 圆角 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E20EF6D-9994-66DC-3642-1A0878650B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="7343775"/>
+          <a:ext cx="1562100" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>大世界管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(WC+WP)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1671,11 +1801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49B89AF-5BE6-40D5-B268-7CE4E391C5E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1776,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D432A4-39B1-4B81-8674-C108BEC2E645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1789,7 +1919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93780CFC-61C1-47EC-A214-22393F54FE1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1804,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616442AF-5C70-4628-837F-1FD518C53D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1817,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECA4B5B-004F-48C2-B168-32301EB92D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1832,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B54A1DC-66DF-46D1-98A1-E113E67D65EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1845,7 +1975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995561AF-C8E6-41AE-85EF-EDF1CE27CC1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1860,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA6F9D7-EFC6-4555-8BF4-DEE567AE0C2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1894,7 +2024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B26149-B85B-40B8-AC03-42BD8AE9D0B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1909,7 +2039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5235AB70-4453-413A-8F53-BFBA62A547EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1922,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CB2EB2-DE3C-49AE-81A3-79335A640168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1935,7 +2065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB3B77D-FF78-49C8-A8CC-41D13B2F827C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1948,7 +2078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645BC397-DCCC-49F1-888F-BE69441A7138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
